--- a/mathematical_olympiad/task_4_points_of_all_students.xlsx
+++ b/mathematical_olympiad/task_4_points_of_all_students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popel\Documents\GitHub\Python\mathematical_olympiad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8FEF57D-7829-411D-9A9E-9D4B29723C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C206516-AC81-4F38-9528-3E77E3CBBC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{1F024326-9D51-4BD4-804C-B394FD707CF1}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +73,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -82,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -90,23 +99,121 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -421,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC06415-BEBA-4B4C-8ECF-A82F9ED23D72}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,237 +540,230 @@
     <col min="3" max="3" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>63</v>
+      </c>
+      <c r="C2" s="8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>63</v>
+      </c>
+      <c r="C3" s="9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>63</v>
+      </c>
+      <c r="C4" s="9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>63</v>
+      </c>
+      <c r="C5" s="9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>90</v>
+      </c>
+      <c r="C6" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>90</v>
+      </c>
+      <c r="C7" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>90</v>
+      </c>
+      <c r="C8" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>90</v>
+      </c>
+      <c r="C9" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>90</v>
+      </c>
+      <c r="C10" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>90</v>
+      </c>
+      <c r="C11" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>63</v>
-      </c>
-      <c r="C3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>63</v>
-      </c>
-      <c r="C4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>63</v>
-      </c>
-      <c r="C5">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>63</v>
-      </c>
-      <c r="C6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>72</v>
-      </c>
-      <c r="C7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>72</v>
-      </c>
-      <c r="C8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>72</v>
-      </c>
-      <c r="C9">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="B12" s="2">
+        <v>90</v>
+      </c>
+      <c r="C12" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>90</v>
+      </c>
+      <c r="C13" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>90</v>
+      </c>
+      <c r="C14" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>90</v>
+      </c>
+      <c r="C15" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <v>90</v>
+      </c>
+      <c r="C16" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>90</v>
+      </c>
+      <c r="C17" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
+        <v>90</v>
+      </c>
+      <c r="C18" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3">
+        <v>90</v>
+      </c>
+      <c r="C19" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>72</v>
-      </c>
-      <c r="C10">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>72</v>
-      </c>
-      <c r="C11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>72</v>
-      </c>
-      <c r="C12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>72</v>
-      </c>
-      <c r="C13">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>72</v>
-      </c>
-      <c r="C14">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>72</v>
-      </c>
-      <c r="C15">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>72</v>
-      </c>
-      <c r="C16">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>72</v>
-      </c>
-      <c r="C17">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>72</v>
-      </c>
-      <c r="C18">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>72</v>
-      </c>
-      <c r="C19">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>72</v>
-      </c>
-      <c r="C20">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1">
-        <f>AVERAGE(B3:B20)</f>
+      <c r="B20" s="7">
+        <f>AVERAGE(B2:B19)</f>
+        <v>84</v>
+      </c>
+      <c r="C20" s="7">
+        <f>AVERAGE(C2:C19)</f>
         <v>70</v>
       </c>
-      <c r="C21" s="1">
-        <f>AVERAGE(C3:C20)</f>
-        <v>84</v>
-      </c>
-    </row>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:C2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
